--- a/Code/Results/Cases/Case_3_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.994823786341332</v>
+        <v>1.042787090767824</v>
       </c>
       <c r="D2">
-        <v>1.016613793986254</v>
+        <v>1.046997488767504</v>
       </c>
       <c r="E2">
-        <v>1.001205207094821</v>
+        <v>1.040796569429764</v>
       </c>
       <c r="F2">
-        <v>1.01712867249631</v>
+        <v>1.055794405078732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044947724982082</v>
+        <v>1.038020593043764</v>
       </c>
       <c r="J2">
-        <v>1.0171604270547</v>
+        <v>1.047861036300901</v>
       </c>
       <c r="K2">
-        <v>1.027846424568269</v>
+        <v>1.049761358714254</v>
       </c>
       <c r="L2">
-        <v>1.012647776966177</v>
+        <v>1.043577901587617</v>
       </c>
       <c r="M2">
-        <v>1.028354425887994</v>
+        <v>1.058533883661371</v>
       </c>
       <c r="N2">
-        <v>1.01860491153105</v>
+        <v>1.049349119163789</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00297931598357</v>
+        <v>1.044370604914972</v>
       </c>
       <c r="D3">
-        <v>1.022891706232496</v>
+        <v>1.048217761824661</v>
       </c>
       <c r="E3">
-        <v>1.008044678075513</v>
+        <v>1.042165840438479</v>
       </c>
       <c r="F3">
-        <v>1.024404248802926</v>
+        <v>1.05725359839982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047638791547726</v>
+        <v>1.038419654363171</v>
       </c>
       <c r="J3">
-        <v>1.023389090038688</v>
+        <v>1.049087984523825</v>
       </c>
       <c r="K3">
-        <v>1.033239827890964</v>
+        <v>1.050792327144732</v>
       </c>
       <c r="L3">
-        <v>1.018575650225227</v>
+        <v>1.044756200884216</v>
       </c>
       <c r="M3">
-        <v>1.034734111890937</v>
+        <v>1.059804943729312</v>
       </c>
       <c r="N3">
-        <v>1.024842419930913</v>
+        <v>1.050577809793923</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008085578242184</v>
+        <v>1.045393329847113</v>
       </c>
       <c r="D4">
-        <v>1.026824631852777</v>
+        <v>1.049005464576918</v>
       </c>
       <c r="E4">
-        <v>1.012332866250161</v>
+        <v>1.043050311366623</v>
       </c>
       <c r="F4">
-        <v>1.028967117148735</v>
+        <v>1.058196268679318</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049307536580339</v>
+        <v>1.038675331154419</v>
       </c>
       <c r="J4">
-        <v>1.027284691390506</v>
+        <v>1.049879646213311</v>
       </c>
       <c r="K4">
-        <v>1.036609737898142</v>
+        <v>1.051456978670331</v>
       </c>
       <c r="L4">
-        <v>1.022284688751485</v>
+        <v>1.045516576333017</v>
       </c>
       <c r="M4">
-        <v>1.038728066466327</v>
+        <v>1.060625367522939</v>
       </c>
       <c r="N4">
-        <v>1.028743553483481</v>
+        <v>1.051370595733813</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010193821515235</v>
+        <v>1.045822834730403</v>
       </c>
       <c r="D5">
-        <v>1.028448835370323</v>
+        <v>1.049336167425704</v>
       </c>
       <c r="E5">
-        <v>1.014104658202335</v>
+        <v>1.043421781993641</v>
       </c>
       <c r="F5">
-        <v>1.030852682118442</v>
+        <v>1.058592209718227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049992556458732</v>
+        <v>1.038782211709885</v>
       </c>
       <c r="J5">
-        <v>1.028891987137449</v>
+        <v>1.050211927988435</v>
       </c>
       <c r="K5">
-        <v>1.037999310886063</v>
+        <v>1.051735816658601</v>
       </c>
       <c r="L5">
-        <v>1.023815373328011</v>
+        <v>1.045835751171845</v>
       </c>
       <c r="M5">
-        <v>1.04037683985338</v>
+        <v>1.060969792978182</v>
       </c>
       <c r="N5">
-        <v>1.030353131774744</v>
+        <v>1.05170334938717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010545619369954</v>
+        <v>1.045894924459653</v>
       </c>
       <c r="D6">
-        <v>1.02871988223092</v>
+        <v>1.049391667839162</v>
       </c>
       <c r="E6">
-        <v>1.014400387184579</v>
+        <v>1.043484132596577</v>
       </c>
       <c r="F6">
-        <v>1.031167416874203</v>
+        <v>1.05865866921486</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050106628800347</v>
+        <v>1.038800121969972</v>
       </c>
       <c r="J6">
-        <v>1.029160126186898</v>
+        <v>1.050267688526854</v>
       </c>
       <c r="K6">
-        <v>1.038231078438805</v>
+        <v>1.051782600856321</v>
       </c>
       <c r="L6">
-        <v>1.024070752693132</v>
+        <v>1.045889313672917</v>
       </c>
       <c r="M6">
-        <v>1.040651950247833</v>
+        <v>1.061027595540253</v>
       </c>
       <c r="N6">
-        <v>1.0306216516124</v>
+        <v>1.05175918911195</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008113896576011</v>
+        <v>1.045399070663446</v>
       </c>
       <c r="D7">
-        <v>1.026846447063668</v>
+        <v>1.049009885194629</v>
       </c>
       <c r="E7">
-        <v>1.012356660255751</v>
+        <v>1.043055276384388</v>
       </c>
       <c r="F7">
-        <v>1.028992437964708</v>
+        <v>1.058201560658371</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049316753697847</v>
+        <v>1.038676761675338</v>
       </c>
       <c r="J7">
-        <v>1.027306285348505</v>
+        <v>1.049884088263262</v>
       </c>
       <c r="K7">
-        <v>1.036628410079451</v>
+        <v>1.051460706794789</v>
       </c>
       <c r="L7">
-        <v>1.02230525201622</v>
+        <v>1.045520843067937</v>
       </c>
       <c r="M7">
-        <v>1.038750214165389</v>
+        <v>1.060629971633009</v>
       </c>
       <c r="N7">
-        <v>1.028765178107378</v>
+        <v>1.051375044091984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9976169470359493</v>
+        <v>1.043322649066866</v>
       </c>
       <c r="D8">
-        <v>1.018763326948764</v>
+        <v>1.047410282106977</v>
       </c>
       <c r="E8">
-        <v>1.00354631079263</v>
+        <v>1.041259644151801</v>
       </c>
       <c r="F8">
-        <v>1.019618774749978</v>
+        <v>1.056287866741372</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045872743232946</v>
+        <v>1.038155985790313</v>
       </c>
       <c r="J8">
-        <v>1.019294503154183</v>
+        <v>1.048276160670448</v>
       </c>
       <c r="K8">
-        <v>1.02969499646071</v>
+        <v>1.050110291048095</v>
       </c>
       <c r="L8">
-        <v>1.014678458375545</v>
+        <v>1.043976544663898</v>
       </c>
       <c r="M8">
-        <v>1.030539396354414</v>
+        <v>1.058963870360461</v>
       </c>
       <c r="N8">
-        <v>1.020742018263375</v>
+        <v>1.049764833057556</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9776853681965687</v>
+        <v>1.039648629710175</v>
       </c>
       <c r="D9">
-        <v>1.003441050822603</v>
+        <v>1.044576771155948</v>
       </c>
       <c r="E9">
-        <v>0.9868715836783879</v>
+        <v>1.038083387239365</v>
       </c>
       <c r="F9">
-        <v>1.001889160853925</v>
+        <v>1.052903667343646</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03920547267406</v>
+        <v>1.037218715799758</v>
       </c>
       <c r="J9">
-        <v>1.004051491762026</v>
+        <v>1.045425182862012</v>
       </c>
       <c r="K9">
-        <v>1.016478544997242</v>
+        <v>1.047711621922354</v>
       </c>
       <c r="L9">
-        <v>1.000181313111291</v>
+        <v>1.041239183684626</v>
       </c>
       <c r="M9">
-        <v>1.014951661920617</v>
+        <v>1.056012071558581</v>
       </c>
       <c r="N9">
-        <v>1.005477360046644</v>
+        <v>1.046909806533621</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9632313957652396</v>
+        <v>1.037188519987097</v>
       </c>
       <c r="D10">
-        <v>0.9923594239909732</v>
+        <v>1.042677402555624</v>
       </c>
       <c r="E10">
-        <v>0.9748262278805913</v>
+        <v>1.035957257988397</v>
       </c>
       <c r="F10">
-        <v>0.9890912012562506</v>
+        <v>1.050638965035731</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034289765958934</v>
+        <v>1.036580519193182</v>
       </c>
       <c r="J10">
-        <v>0.9929837906780347</v>
+        <v>1.043512235418447</v>
       </c>
       <c r="K10">
-        <v>1.006868015468019</v>
+        <v>1.046099311983451</v>
       </c>
       <c r="L10">
-        <v>0.9896653807698197</v>
+        <v>1.039403009281908</v>
       </c>
       <c r="M10">
-        <v>1.003660250952099</v>
+        <v>1.054033062926468</v>
       </c>
       <c r="N10">
-        <v>0.9943939415576304</v>
+        <v>1.044994142485268</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9566416174913495</v>
+        <v>1.036120575533951</v>
       </c>
       <c r="D11">
-        <v>0.9873174095396939</v>
+        <v>1.041852406017325</v>
       </c>
       <c r="E11">
-        <v>0.9693482776830004</v>
+        <v>1.035034468790766</v>
       </c>
       <c r="F11">
-        <v>0.9832736890397592</v>
+        <v>1.04965618287657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032031147025427</v>
+        <v>1.036300967144768</v>
       </c>
       <c r="J11">
-        <v>0.9879364178355822</v>
+        <v>1.042680888630579</v>
       </c>
       <c r="K11">
-        <v>1.00248253087671</v>
+        <v>1.045397948463861</v>
       </c>
       <c r="L11">
-        <v>0.9848723537390743</v>
+        <v>1.038605155425506</v>
       </c>
       <c r="M11">
-        <v>0.9985180862746682</v>
+        <v>1.053173388166786</v>
       </c>
       <c r="N11">
-        <v>0.9893394008667996</v>
+        <v>1.044161615089604</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9541386186841379</v>
+        <v>1.03572347579017</v>
       </c>
       <c r="D12">
-        <v>0.9854041546966777</v>
+        <v>1.04154557337099</v>
       </c>
       <c r="E12">
-        <v>0.9672698995412391</v>
+        <v>1.034691369872101</v>
       </c>
       <c r="F12">
-        <v>0.9810669316962487</v>
+        <v>1.049290801196219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031170797308835</v>
+        <v>1.036196643513766</v>
       </c>
       <c r="J12">
-        <v>0.9860192361363069</v>
+        <v>1.042371625530534</v>
       </c>
       <c r="K12">
-        <v>1.000816434211729</v>
+        <v>1.045136939200485</v>
       </c>
       <c r="L12">
-        <v>0.9830522189790541</v>
+        <v>1.0383083710803</v>
       </c>
       <c r="M12">
-        <v>0.9965660763201057</v>
+        <v>1.052853644729448</v>
       </c>
       <c r="N12">
-        <v>0.9874194965496075</v>
+        <v>1.043851912800483</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9546781192028932</v>
+        <v>1.035808674123303</v>
       </c>
       <c r="D13">
-        <v>0.9858164516132911</v>
+        <v>1.04161140789197</v>
       </c>
       <c r="E13">
-        <v>0.9677177677473228</v>
+        <v>1.034764981014617</v>
       </c>
       <c r="F13">
-        <v>0.9815424429618282</v>
+        <v>1.049369192011728</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03135634642837</v>
+        <v>1.036219043315352</v>
       </c>
       <c r="J13">
-        <v>0.9864324670842565</v>
+        <v>1.042437984652203</v>
       </c>
       <c r="K13">
-        <v>1.001175559473157</v>
+        <v>1.045192948940963</v>
       </c>
       <c r="L13">
-        <v>0.9834445121309535</v>
+        <v>1.038372051739936</v>
       </c>
       <c r="M13">
-        <v>0.9969867594777114</v>
+        <v>1.052922250016307</v>
       </c>
       <c r="N13">
-        <v>0.9878333143329016</v>
+        <v>1.043918366159717</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9564358811417436</v>
+        <v>1.036087759733711</v>
       </c>
       <c r="D14">
-        <v>0.9871601082063328</v>
+        <v>1.04182705118224</v>
       </c>
       <c r="E14">
-        <v>0.9691773949618692</v>
+        <v>1.035006114992735</v>
       </c>
       <c r="F14">
-        <v>0.9830922415947118</v>
+        <v>1.049625987153372</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031960478496395</v>
+        <v>1.036292353646298</v>
       </c>
       <c r="J14">
-        <v>0.9877788328638077</v>
+        <v>1.042655334361642</v>
       </c>
       <c r="K14">
-        <v>1.002345590261444</v>
+        <v>1.045376383429087</v>
       </c>
       <c r="L14">
-        <v>0.9847227366226777</v>
+        <v>1.038580631876608</v>
       </c>
       <c r="M14">
-        <v>0.9983576141410927</v>
+        <v>1.053146966732612</v>
       </c>
       <c r="N14">
-        <v>0.98918159210629</v>
+        <v>1.044136024530673</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9575113938870385</v>
+        <v>1.036259657893075</v>
       </c>
       <c r="D15">
-        <v>0.9879824980816015</v>
+        <v>1.041959863920282</v>
       </c>
       <c r="E15">
-        <v>0.9700708014924677</v>
+        <v>1.035154641069495</v>
       </c>
       <c r="F15">
-        <v>0.9840409011624457</v>
+        <v>1.049784162754843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032329808486621</v>
+        <v>1.03633745811543</v>
       </c>
       <c r="J15">
-        <v>0.9886026279019599</v>
+        <v>1.042789188951522</v>
       </c>
       <c r="K15">
-        <v>1.003061451626369</v>
+        <v>1.045489338102138</v>
       </c>
       <c r="L15">
-        <v>0.985504896617597</v>
+        <v>1.03870908829147</v>
       </c>
       <c r="M15">
-        <v>0.9991965505245509</v>
+        <v>1.053285365944734</v>
       </c>
       <c r="N15">
-        <v>0.9900065570278869</v>
+        <v>1.044270069209425</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.963661309803089</v>
+        <v>1.037259338031462</v>
       </c>
       <c r="D16">
-        <v>0.9926885997143161</v>
+        <v>1.042732100298116</v>
       </c>
       <c r="E16">
-        <v>0.9751839100912852</v>
+        <v>1.036018454148585</v>
       </c>
       <c r="F16">
-        <v>0.989471114769518</v>
+        <v>1.050704142925058</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034436770293161</v>
+        <v>1.036599004241923</v>
       </c>
       <c r="J16">
-        <v>0.9933130637425274</v>
+        <v>1.043567344607699</v>
       </c>
       <c r="K16">
-        <v>1.007154060515931</v>
+        <v>1.046145790637772</v>
       </c>
       <c r="L16">
-        <v>0.9899781195235445</v>
+        <v>1.039455900956809</v>
       </c>
       <c r="M16">
-        <v>1.003995864374447</v>
+        <v>1.05409005801265</v>
       </c>
       <c r="N16">
-        <v>0.9947236822276427</v>
+        <v>1.045049329935888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9674267056445865</v>
+        <v>1.037885679565925</v>
       </c>
       <c r="D17">
-        <v>0.9955728669159979</v>
+        <v>1.043215813478868</v>
       </c>
       <c r="E17">
-        <v>0.9783182314439406</v>
+        <v>1.036559716168132</v>
       </c>
       <c r="F17">
-        <v>0.9928005552927457</v>
+        <v>1.05128063962384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035722359678747</v>
+        <v>1.036762203709467</v>
       </c>
       <c r="J17">
-        <v>0.9961968537763169</v>
+        <v>1.044054644120721</v>
       </c>
       <c r="K17">
-        <v>1.009658967651517</v>
+        <v>1.046556697929132</v>
       </c>
       <c r="L17">
-        <v>0.9927174092368652</v>
+        <v>1.039923607023969</v>
       </c>
       <c r="M17">
-        <v>1.006936005487321</v>
+        <v>1.054594077492998</v>
       </c>
       <c r="N17">
-        <v>0.9976115675740554</v>
+        <v>1.045537321470114</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9695914640893181</v>
+        <v>1.038250754214631</v>
       </c>
       <c r="D18">
-        <v>0.9972319944743865</v>
+        <v>1.043497708984961</v>
       </c>
       <c r="E18">
-        <v>0.9801214433424527</v>
+        <v>1.036875217250142</v>
       </c>
       <c r="F18">
-        <v>0.994716271537734</v>
+        <v>1.051616693486598</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036459809786105</v>
+        <v>1.036857085841639</v>
       </c>
       <c r="J18">
-        <v>0.9978546214148497</v>
+        <v>1.044338586142813</v>
       </c>
       <c r="K18">
-        <v>1.011098678968285</v>
+        <v>1.046796062766384</v>
       </c>
       <c r="L18">
-        <v>0.994292361564017</v>
+        <v>1.040196144580417</v>
       </c>
       <c r="M18">
-        <v>1.008626836586247</v>
+        <v>1.054887798689914</v>
       </c>
       <c r="N18">
-        <v>0.9992716894327837</v>
+        <v>1.045821666722446</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9703243961869338</v>
+        <v>1.038375191531118</v>
       </c>
       <c r="D19">
-        <v>0.9977938832754504</v>
+        <v>1.043593786546406</v>
       </c>
       <c r="E19">
-        <v>0.98073217236502</v>
+        <v>1.036982759980638</v>
       </c>
       <c r="F19">
-        <v>0.9953651457402926</v>
+        <v>1.05173124435839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036709207741721</v>
+        <v>1.036889385829161</v>
       </c>
       <c r="J19">
-        <v>0.9984158692670813</v>
+        <v>1.044435353854573</v>
       </c>
       <c r="K19">
-        <v>1.011586057584493</v>
+        <v>1.04687762755934</v>
       </c>
       <c r="L19">
-        <v>0.9948256136794739</v>
+        <v>1.04028902773083</v>
       </c>
       <c r="M19">
-        <v>1.00919938940318</v>
+        <v>1.054987905366697</v>
       </c>
       <c r="N19">
-        <v>0.9998337343213414</v>
+        <v>1.045918571855456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9670260131014388</v>
+        <v>1.037818506002195</v>
       </c>
       <c r="D20">
-        <v>0.9952658395998875</v>
+        <v>1.043163941156641</v>
       </c>
       <c r="E20">
-        <v>0.9779845612309717</v>
+        <v>1.036501665446397</v>
       </c>
       <c r="F20">
-        <v>0.9924460869887411</v>
+        <v>1.051218808453832</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035585724498682</v>
+        <v>1.036744725974457</v>
       </c>
       <c r="J20">
-        <v>0.995889991031511</v>
+        <v>1.044002391714979</v>
       </c>
       <c r="K20">
-        <v>1.009392447462109</v>
+        <v>1.046512643629125</v>
       </c>
       <c r="L20">
-        <v>0.9924258963270498</v>
+        <v>1.039873454317491</v>
       </c>
       <c r="M20">
-        <v>1.006623076199241</v>
+        <v>1.054540028428889</v>
       </c>
       <c r="N20">
-        <v>0.9973042690489542</v>
+        <v>1.045484994859962</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9559198382047808</v>
+        <v>1.03600558760181</v>
       </c>
       <c r="D21">
-        <v>0.9867655844740354</v>
+        <v>1.041763560499107</v>
       </c>
       <c r="E21">
-        <v>0.9687488125530306</v>
+        <v>1.034935116338732</v>
       </c>
       <c r="F21">
-        <v>0.982637169787377</v>
+        <v>1.04955037664309</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031783183664218</v>
+        <v>1.036270779012839</v>
       </c>
       <c r="J21">
-        <v>0.9873835668203246</v>
+        <v>1.04259134316758</v>
       </c>
       <c r="K21">
-        <v>1.002002100931858</v>
+        <v>1.045322380175772</v>
       </c>
       <c r="L21">
-        <v>0.9843474632558354</v>
+        <v>1.03851922205063</v>
       </c>
       <c r="M21">
-        <v>0.9979551255541813</v>
+        <v>1.053080804978501</v>
       </c>
       <c r="N21">
-        <v>0.9887857647396876</v>
+        <v>1.044071942461776</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9486138133915253</v>
+        <v>1.034863311649038</v>
       </c>
       <c r="D22">
-        <v>0.9811848936509802</v>
+        <v>1.040880812446558</v>
       </c>
       <c r="E22">
-        <v>0.9626869416151904</v>
+        <v>1.033948228128765</v>
       </c>
       <c r="F22">
-        <v>0.9762017854113034</v>
+        <v>1.048499438115818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029267434909814</v>
+        <v>1.035969978734079</v>
       </c>
       <c r="J22">
-        <v>0.9817876490960183</v>
+        <v>1.041701472525164</v>
       </c>
       <c r="K22">
-        <v>0.9971385287140815</v>
+        <v>1.044571166171135</v>
       </c>
       <c r="L22">
-        <v>0.9790356766595728</v>
+        <v>1.037665294090193</v>
       </c>
       <c r="M22">
-        <v>0.9922599052707112</v>
+        <v>1.05216088763296</v>
       </c>
       <c r="N22">
-        <v>0.9831819001703522</v>
+        <v>1.043180808100979</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9525195838386112</v>
+        <v>1.03546908733163</v>
       </c>
       <c r="D23">
-        <v>0.9841671551339491</v>
+        <v>1.041348992043643</v>
       </c>
       <c r="E23">
-        <v>0.965926213231174</v>
+        <v>1.034471582911527</v>
       </c>
       <c r="F23">
-        <v>0.9796403816575491</v>
+        <v>1.049056746558793</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030613620474824</v>
+        <v>1.036129706276681</v>
       </c>
       <c r="J23">
-        <v>0.9847791450490057</v>
+        <v>1.042173467638587</v>
       </c>
       <c r="K23">
-        <v>0.9997386708241072</v>
+        <v>1.044969671405235</v>
       </c>
       <c r="L23">
-        <v>0.9818750279940623</v>
+        <v>1.038118214291315</v>
       </c>
       <c r="M23">
-        <v>0.9953038017839098</v>
+        <v>1.052648787952345</v>
       </c>
       <c r="N23">
-        <v>0.9861776443907221</v>
+        <v>1.043653473501601</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9672071658541408</v>
+        <v>1.037848859646957</v>
       </c>
       <c r="D24">
-        <v>0.9954046434921493</v>
+        <v>1.043187380787181</v>
       </c>
       <c r="E24">
-        <v>0.978135409335868</v>
+        <v>1.036527896711321</v>
       </c>
       <c r="F24">
-        <v>0.9926063368752587</v>
+        <v>1.051246747937584</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03564750227622</v>
+        <v>1.036752624366554</v>
       </c>
       <c r="J24">
-        <v>0.9960287238868326</v>
+        <v>1.044026003228911</v>
       </c>
       <c r="K24">
-        <v>1.009512942211826</v>
+        <v>1.046532550830354</v>
       </c>
       <c r="L24">
-        <v>0.9925576887308956</v>
+        <v>1.039896116993363</v>
       </c>
       <c r="M24">
-        <v>1.006764549667411</v>
+        <v>1.054564451692938</v>
       </c>
       <c r="N24">
-        <v>0.9974431989208433</v>
+        <v>1.045508639904953</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9830273210024524</v>
+        <v>1.040600303766098</v>
       </c>
       <c r="D25">
-        <v>1.007543531083206</v>
+        <v>1.045311097855878</v>
       </c>
       <c r="E25">
-        <v>0.9913334779116029</v>
+        <v>1.03890601097843</v>
       </c>
       <c r="F25">
-        <v>1.006631864127908</v>
+        <v>1.053780038695306</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041006560442782</v>
+        <v>1.037463362666434</v>
       </c>
       <c r="J25">
-        <v>1.008139702532718</v>
+        <v>1.046164362191418</v>
       </c>
       <c r="K25">
-        <v>1.020025861323126</v>
+        <v>1.048334033428975</v>
       </c>
       <c r="L25">
-        <v>1.00406783698466</v>
+        <v>1.041948810839922</v>
       </c>
       <c r="M25">
-        <v>1.01912809395295</v>
+        <v>1.056777113631101</v>
       </c>
       <c r="N25">
-        <v>1.009571376545555</v>
+        <v>1.047650035582459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042787090767824</v>
+        <v>0.9948237863413307</v>
       </c>
       <c r="D2">
-        <v>1.046997488767504</v>
+        <v>1.016613793986253</v>
       </c>
       <c r="E2">
-        <v>1.040796569429764</v>
+        <v>1.00120520709482</v>
       </c>
       <c r="F2">
-        <v>1.055794405078732</v>
+        <v>1.017128672496308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038020593043764</v>
+        <v>1.044947724982082</v>
       </c>
       <c r="J2">
-        <v>1.047861036300901</v>
+        <v>1.017160427054699</v>
       </c>
       <c r="K2">
-        <v>1.049761358714254</v>
+        <v>1.027846424568268</v>
       </c>
       <c r="L2">
-        <v>1.043577901587617</v>
+        <v>1.012647776966176</v>
       </c>
       <c r="M2">
-        <v>1.058533883661371</v>
+        <v>1.028354425887993</v>
       </c>
       <c r="N2">
-        <v>1.049349119163789</v>
+        <v>1.018604911531048</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044370604914972</v>
+        <v>1.00297931598357</v>
       </c>
       <c r="D3">
-        <v>1.048217761824661</v>
+        <v>1.022891706232496</v>
       </c>
       <c r="E3">
-        <v>1.042165840438479</v>
+        <v>1.008044678075513</v>
       </c>
       <c r="F3">
-        <v>1.05725359839982</v>
+        <v>1.024404248802926</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038419654363171</v>
+        <v>1.047638791547726</v>
       </c>
       <c r="J3">
-        <v>1.049087984523825</v>
+        <v>1.023389090038688</v>
       </c>
       <c r="K3">
-        <v>1.050792327144732</v>
+        <v>1.033239827890965</v>
       </c>
       <c r="L3">
-        <v>1.044756200884216</v>
+        <v>1.018575650225227</v>
       </c>
       <c r="M3">
-        <v>1.059804943729312</v>
+        <v>1.034734111890937</v>
       </c>
       <c r="N3">
-        <v>1.050577809793923</v>
+        <v>1.024842419930912</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045393329847113</v>
+        <v>1.008085578242184</v>
       </c>
       <c r="D4">
-        <v>1.049005464576918</v>
+        <v>1.026824631852777</v>
       </c>
       <c r="E4">
-        <v>1.043050311366623</v>
+        <v>1.012332866250161</v>
       </c>
       <c r="F4">
-        <v>1.058196268679318</v>
+        <v>1.028967117148736</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038675331154419</v>
+        <v>1.049307536580339</v>
       </c>
       <c r="J4">
-        <v>1.049879646213311</v>
+        <v>1.027284691390507</v>
       </c>
       <c r="K4">
-        <v>1.051456978670331</v>
+        <v>1.036609737898143</v>
       </c>
       <c r="L4">
-        <v>1.045516576333017</v>
+        <v>1.022284688751485</v>
       </c>
       <c r="M4">
-        <v>1.060625367522939</v>
+        <v>1.038728066466328</v>
       </c>
       <c r="N4">
-        <v>1.051370595733813</v>
+        <v>1.028743553483483</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045822834730403</v>
+        <v>1.010193821515236</v>
       </c>
       <c r="D5">
-        <v>1.049336167425704</v>
+        <v>1.028448835370324</v>
       </c>
       <c r="E5">
-        <v>1.043421781993641</v>
+        <v>1.014104658202336</v>
       </c>
       <c r="F5">
-        <v>1.058592209718227</v>
+        <v>1.030852682118444</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038782211709885</v>
+        <v>1.049992556458732</v>
       </c>
       <c r="J5">
-        <v>1.050211927988435</v>
+        <v>1.02889198713745</v>
       </c>
       <c r="K5">
-        <v>1.051735816658601</v>
+        <v>1.037999310886064</v>
       </c>
       <c r="L5">
-        <v>1.045835751171845</v>
+        <v>1.023815373328012</v>
       </c>
       <c r="M5">
-        <v>1.060969792978182</v>
+        <v>1.040376839853381</v>
       </c>
       <c r="N5">
-        <v>1.05170334938717</v>
+        <v>1.030353131774745</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045894924459653</v>
+        <v>1.010545619369955</v>
       </c>
       <c r="D6">
-        <v>1.049391667839162</v>
+        <v>1.02871988223092</v>
       </c>
       <c r="E6">
-        <v>1.043484132596577</v>
+        <v>1.01440038718458</v>
       </c>
       <c r="F6">
-        <v>1.05865866921486</v>
+        <v>1.031167416874204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038800121969972</v>
+        <v>1.050106628800348</v>
       </c>
       <c r="J6">
-        <v>1.050267688526854</v>
+        <v>1.029160126186899</v>
       </c>
       <c r="K6">
-        <v>1.051782600856321</v>
+        <v>1.038231078438806</v>
       </c>
       <c r="L6">
-        <v>1.045889313672917</v>
+        <v>1.024070752693132</v>
       </c>
       <c r="M6">
-        <v>1.061027595540253</v>
+        <v>1.040651950247834</v>
       </c>
       <c r="N6">
-        <v>1.05175918911195</v>
+        <v>1.030621651612401</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045399070663446</v>
+        <v>1.008113896576011</v>
       </c>
       <c r="D7">
-        <v>1.049009885194629</v>
+        <v>1.026846447063668</v>
       </c>
       <c r="E7">
-        <v>1.043055276384388</v>
+        <v>1.012356660255751</v>
       </c>
       <c r="F7">
-        <v>1.058201560658371</v>
+        <v>1.028992437964709</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038676761675338</v>
+        <v>1.049316753697847</v>
       </c>
       <c r="J7">
-        <v>1.049884088263262</v>
+        <v>1.027306285348506</v>
       </c>
       <c r="K7">
-        <v>1.051460706794789</v>
+        <v>1.036628410079451</v>
       </c>
       <c r="L7">
-        <v>1.045520843067937</v>
+        <v>1.022305252016221</v>
       </c>
       <c r="M7">
-        <v>1.060629971633009</v>
+        <v>1.03875021416539</v>
       </c>
       <c r="N7">
-        <v>1.051375044091984</v>
+        <v>1.028765178107379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043322649066866</v>
+        <v>0.9976169470359477</v>
       </c>
       <c r="D8">
-        <v>1.047410282106977</v>
+        <v>1.018763326948763</v>
       </c>
       <c r="E8">
-        <v>1.041259644151801</v>
+        <v>1.003546310792629</v>
       </c>
       <c r="F8">
-        <v>1.056287866741372</v>
+        <v>1.019618774749976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038155985790313</v>
+        <v>1.045872743232946</v>
       </c>
       <c r="J8">
-        <v>1.048276160670448</v>
+        <v>1.019294503154181</v>
       </c>
       <c r="K8">
-        <v>1.050110291048095</v>
+        <v>1.029694996460709</v>
       </c>
       <c r="L8">
-        <v>1.043976544663898</v>
+        <v>1.014678458375543</v>
       </c>
       <c r="M8">
-        <v>1.058963870360461</v>
+        <v>1.030539396354412</v>
       </c>
       <c r="N8">
-        <v>1.049764833057556</v>
+        <v>1.020742018263374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039648629710175</v>
+        <v>0.9776853681965688</v>
       </c>
       <c r="D9">
-        <v>1.044576771155948</v>
+        <v>1.003441050822603</v>
       </c>
       <c r="E9">
-        <v>1.038083387239365</v>
+        <v>0.9868715836783883</v>
       </c>
       <c r="F9">
-        <v>1.052903667343646</v>
+        <v>1.001889160853926</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037218715799758</v>
+        <v>1.03920547267406</v>
       </c>
       <c r="J9">
-        <v>1.045425182862012</v>
+        <v>1.004051491762027</v>
       </c>
       <c r="K9">
-        <v>1.047711621922354</v>
+        <v>1.016478544997242</v>
       </c>
       <c r="L9">
-        <v>1.041239183684626</v>
+        <v>1.000181313111291</v>
       </c>
       <c r="M9">
-        <v>1.056012071558581</v>
+        <v>1.014951661920617</v>
       </c>
       <c r="N9">
-        <v>1.046909806533621</v>
+        <v>1.005477360046645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037188519987097</v>
+        <v>0.9632313957652386</v>
       </c>
       <c r="D10">
-        <v>1.042677402555624</v>
+        <v>0.9923594239909725</v>
       </c>
       <c r="E10">
-        <v>1.035957257988397</v>
+        <v>0.9748262278805908</v>
       </c>
       <c r="F10">
-        <v>1.050638965035731</v>
+        <v>0.9890912012562499</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036580519193182</v>
+        <v>1.034289765958934</v>
       </c>
       <c r="J10">
-        <v>1.043512235418447</v>
+        <v>0.9929837906780339</v>
       </c>
       <c r="K10">
-        <v>1.046099311983451</v>
+        <v>1.006868015468018</v>
       </c>
       <c r="L10">
-        <v>1.039403009281908</v>
+        <v>0.9896653807698192</v>
       </c>
       <c r="M10">
-        <v>1.054033062926468</v>
+        <v>1.003660250952098</v>
       </c>
       <c r="N10">
-        <v>1.044994142485268</v>
+        <v>0.9943939415576295</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036120575533951</v>
+        <v>0.9566416174913487</v>
       </c>
       <c r="D11">
-        <v>1.041852406017325</v>
+        <v>0.9873174095396934</v>
       </c>
       <c r="E11">
-        <v>1.035034468790766</v>
+        <v>0.9693482776829994</v>
       </c>
       <c r="F11">
-        <v>1.04965618287657</v>
+        <v>0.9832736890397581</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036300967144768</v>
+        <v>1.032031147025427</v>
       </c>
       <c r="J11">
-        <v>1.042680888630579</v>
+        <v>0.9879364178355815</v>
       </c>
       <c r="K11">
-        <v>1.045397948463861</v>
+        <v>1.002482530876709</v>
       </c>
       <c r="L11">
-        <v>1.038605155425506</v>
+        <v>0.9848723537390736</v>
       </c>
       <c r="M11">
-        <v>1.053173388166786</v>
+        <v>0.9985180862746671</v>
       </c>
       <c r="N11">
-        <v>1.044161615089604</v>
+        <v>0.9893394008667991</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03572347579017</v>
+        <v>0.954138618684136</v>
       </c>
       <c r="D12">
-        <v>1.04154557337099</v>
+        <v>0.9854041546966761</v>
       </c>
       <c r="E12">
-        <v>1.034691369872101</v>
+        <v>0.9672698995412375</v>
       </c>
       <c r="F12">
-        <v>1.049290801196219</v>
+        <v>0.9810669316962469</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036196643513766</v>
+        <v>1.031170797308835</v>
       </c>
       <c r="J12">
-        <v>1.042371625530534</v>
+        <v>0.9860192361363052</v>
       </c>
       <c r="K12">
-        <v>1.045136939200485</v>
+        <v>1.000816434211727</v>
       </c>
       <c r="L12">
-        <v>1.0383083710803</v>
+        <v>0.9830522189790527</v>
       </c>
       <c r="M12">
-        <v>1.052853644729448</v>
+        <v>0.996566076320104</v>
       </c>
       <c r="N12">
-        <v>1.043851912800483</v>
+        <v>0.9874194965496057</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035808674123303</v>
+        <v>0.9546781192028919</v>
       </c>
       <c r="D13">
-        <v>1.04161140789197</v>
+        <v>0.9858164516132899</v>
       </c>
       <c r="E13">
-        <v>1.034764981014617</v>
+        <v>0.9677177677473213</v>
       </c>
       <c r="F13">
-        <v>1.049369192011728</v>
+        <v>0.9815424429618269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036219043315352</v>
+        <v>1.031356346428369</v>
       </c>
       <c r="J13">
-        <v>1.042437984652203</v>
+        <v>0.9864324670842551</v>
       </c>
       <c r="K13">
-        <v>1.045192948940963</v>
+        <v>1.001175559473156</v>
       </c>
       <c r="L13">
-        <v>1.038372051739936</v>
+        <v>0.9834445121309522</v>
       </c>
       <c r="M13">
-        <v>1.052922250016307</v>
+        <v>0.99698675947771</v>
       </c>
       <c r="N13">
-        <v>1.043918366159717</v>
+        <v>0.9878333143329007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036087759733711</v>
+        <v>0.9564358811417414</v>
       </c>
       <c r="D14">
-        <v>1.04182705118224</v>
+        <v>0.9871601082063312</v>
       </c>
       <c r="E14">
-        <v>1.035006114992735</v>
+        <v>0.9691773949618671</v>
       </c>
       <c r="F14">
-        <v>1.049625987153372</v>
+        <v>0.9830922415947103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036292353646298</v>
+        <v>1.031960478496394</v>
       </c>
       <c r="J14">
-        <v>1.042655334361642</v>
+        <v>0.9877788328638057</v>
       </c>
       <c r="K14">
-        <v>1.045376383429087</v>
+        <v>1.002345590261442</v>
       </c>
       <c r="L14">
-        <v>1.038580631876608</v>
+        <v>0.9847227366226757</v>
       </c>
       <c r="M14">
-        <v>1.053146966732612</v>
+        <v>0.998357614141091</v>
       </c>
       <c r="N14">
-        <v>1.044136024530673</v>
+        <v>0.989181592106288</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036259657893075</v>
+        <v>0.9575113938870354</v>
       </c>
       <c r="D15">
-        <v>1.041959863920282</v>
+        <v>0.9879824980815992</v>
       </c>
       <c r="E15">
-        <v>1.035154641069495</v>
+        <v>0.9700708014924653</v>
       </c>
       <c r="F15">
-        <v>1.049784162754843</v>
+        <v>0.9840409011624434</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03633745811543</v>
+        <v>1.03232980848662</v>
       </c>
       <c r="J15">
-        <v>1.042789188951522</v>
+        <v>0.988602627901957</v>
       </c>
       <c r="K15">
-        <v>1.045489338102138</v>
+        <v>1.003061451626366</v>
       </c>
       <c r="L15">
-        <v>1.03870908829147</v>
+        <v>0.9855048966175944</v>
       </c>
       <c r="M15">
-        <v>1.053285365944734</v>
+        <v>0.9991965505245487</v>
       </c>
       <c r="N15">
-        <v>1.044270069209425</v>
+        <v>0.9900065570278841</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037259338031462</v>
+        <v>0.9636613098030893</v>
       </c>
       <c r="D16">
-        <v>1.042732100298116</v>
+        <v>0.9926885997143161</v>
       </c>
       <c r="E16">
-        <v>1.036018454148585</v>
+        <v>0.9751839100912851</v>
       </c>
       <c r="F16">
-        <v>1.050704142925058</v>
+        <v>0.9894711147695177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036599004241923</v>
+        <v>1.034436770293161</v>
       </c>
       <c r="J16">
-        <v>1.043567344607699</v>
+        <v>0.9933130637425274</v>
       </c>
       <c r="K16">
-        <v>1.046145790637772</v>
+        <v>1.00715406051593</v>
       </c>
       <c r="L16">
-        <v>1.039455900956809</v>
+        <v>0.9899781195235444</v>
       </c>
       <c r="M16">
-        <v>1.05409005801265</v>
+        <v>1.003995864374447</v>
       </c>
       <c r="N16">
-        <v>1.045049329935888</v>
+        <v>0.9947236822276426</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037885679565925</v>
+        <v>0.9674267056445897</v>
       </c>
       <c r="D17">
-        <v>1.043215813478868</v>
+        <v>0.9955728669160009</v>
       </c>
       <c r="E17">
-        <v>1.036559716168132</v>
+        <v>0.9783182314439435</v>
       </c>
       <c r="F17">
-        <v>1.05128063962384</v>
+        <v>0.9928005552927487</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036762203709467</v>
+        <v>1.035722359678748</v>
       </c>
       <c r="J17">
-        <v>1.044054644120721</v>
+        <v>0.9961968537763199</v>
       </c>
       <c r="K17">
-        <v>1.046556697929132</v>
+        <v>1.00965896765152</v>
       </c>
       <c r="L17">
-        <v>1.039923607023969</v>
+        <v>0.9927174092368679</v>
       </c>
       <c r="M17">
-        <v>1.054594077492998</v>
+        <v>1.006936005487324</v>
       </c>
       <c r="N17">
-        <v>1.045537321470114</v>
+        <v>0.9976115675740586</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038250754214631</v>
+        <v>0.9695914640893163</v>
       </c>
       <c r="D18">
-        <v>1.043497708984961</v>
+        <v>0.997231994474385</v>
       </c>
       <c r="E18">
-        <v>1.036875217250142</v>
+        <v>0.9801214433424509</v>
       </c>
       <c r="F18">
-        <v>1.051616693486598</v>
+        <v>0.9947162715377326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036857085841639</v>
+        <v>1.036459809786104</v>
       </c>
       <c r="J18">
-        <v>1.044338586142813</v>
+        <v>0.997854621414848</v>
       </c>
       <c r="K18">
-        <v>1.046796062766384</v>
+        <v>1.011098678968283</v>
       </c>
       <c r="L18">
-        <v>1.040196144580417</v>
+        <v>0.9942923615640153</v>
       </c>
       <c r="M18">
-        <v>1.054887798689914</v>
+        <v>1.008626836586246</v>
       </c>
       <c r="N18">
-        <v>1.045821666722446</v>
+        <v>0.9992716894327819</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038375191531118</v>
+        <v>0.9703243961869367</v>
       </c>
       <c r="D19">
-        <v>1.043593786546406</v>
+        <v>0.9977938832754526</v>
       </c>
       <c r="E19">
-        <v>1.036982759980638</v>
+        <v>0.9807321723650229</v>
       </c>
       <c r="F19">
-        <v>1.05173124435839</v>
+        <v>0.9953651457402948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036889385829161</v>
+        <v>1.036709207741722</v>
       </c>
       <c r="J19">
-        <v>1.044435353854573</v>
+        <v>0.998415869267084</v>
       </c>
       <c r="K19">
-        <v>1.04687762755934</v>
+        <v>1.011586057584496</v>
       </c>
       <c r="L19">
-        <v>1.04028902773083</v>
+        <v>0.9948256136794764</v>
       </c>
       <c r="M19">
-        <v>1.054987905366697</v>
+        <v>1.009199389403182</v>
       </c>
       <c r="N19">
-        <v>1.045918571855456</v>
+        <v>0.9998337343213444</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037818506002195</v>
+        <v>0.9670260131014404</v>
       </c>
       <c r="D20">
-        <v>1.043163941156641</v>
+        <v>0.9952658395998889</v>
       </c>
       <c r="E20">
-        <v>1.036501665446397</v>
+        <v>0.977984561230973</v>
       </c>
       <c r="F20">
-        <v>1.051218808453832</v>
+        <v>0.9924460869887426</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036744725974457</v>
+        <v>1.035585724498683</v>
       </c>
       <c r="J20">
-        <v>1.044002391714979</v>
+        <v>0.9958899910315127</v>
       </c>
       <c r="K20">
-        <v>1.046512643629125</v>
+        <v>1.00939244746211</v>
       </c>
       <c r="L20">
-        <v>1.039873454317491</v>
+        <v>0.9924258963270515</v>
       </c>
       <c r="M20">
-        <v>1.054540028428889</v>
+        <v>1.006623076199242</v>
       </c>
       <c r="N20">
-        <v>1.045484994859962</v>
+        <v>0.9973042690489557</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03600558760181</v>
+        <v>0.9559198382047788</v>
       </c>
       <c r="D21">
-        <v>1.041763560499107</v>
+        <v>0.9867655844740337</v>
       </c>
       <c r="E21">
-        <v>1.034935116338732</v>
+        <v>0.9687488125530289</v>
       </c>
       <c r="F21">
-        <v>1.04955037664309</v>
+        <v>0.982637169787375</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036270779012839</v>
+        <v>1.031783183664217</v>
       </c>
       <c r="J21">
-        <v>1.04259134316758</v>
+        <v>0.9873835668203228</v>
       </c>
       <c r="K21">
-        <v>1.045322380175772</v>
+        <v>1.002002100931856</v>
       </c>
       <c r="L21">
-        <v>1.03851922205063</v>
+        <v>0.9843474632558338</v>
       </c>
       <c r="M21">
-        <v>1.053080804978501</v>
+        <v>0.9979551255541792</v>
       </c>
       <c r="N21">
-        <v>1.044071942461776</v>
+        <v>0.9887857647396858</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034863311649038</v>
+        <v>0.9486138133915247</v>
       </c>
       <c r="D22">
-        <v>1.040880812446558</v>
+        <v>0.9811848936509796</v>
       </c>
       <c r="E22">
-        <v>1.033948228128765</v>
+        <v>0.9626869416151898</v>
       </c>
       <c r="F22">
-        <v>1.048499438115818</v>
+        <v>0.976201785411303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035969978734079</v>
+        <v>1.029267434909814</v>
       </c>
       <c r="J22">
-        <v>1.041701472525164</v>
+        <v>0.9817876490960178</v>
       </c>
       <c r="K22">
-        <v>1.044571166171135</v>
+        <v>0.9971385287140812</v>
       </c>
       <c r="L22">
-        <v>1.037665294090193</v>
+        <v>0.9790356766595721</v>
       </c>
       <c r="M22">
-        <v>1.05216088763296</v>
+        <v>0.992259905270711</v>
       </c>
       <c r="N22">
-        <v>1.043180808100979</v>
+        <v>0.9831819001703518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03546908733163</v>
+        <v>0.9525195838386101</v>
       </c>
       <c r="D23">
-        <v>1.041348992043643</v>
+        <v>0.9841671551339485</v>
       </c>
       <c r="E23">
-        <v>1.034471582911527</v>
+        <v>0.9659262132311733</v>
       </c>
       <c r="F23">
-        <v>1.049056746558793</v>
+        <v>0.9796403816575479</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036129706276681</v>
+        <v>1.030613620474823</v>
       </c>
       <c r="J23">
-        <v>1.042173467638587</v>
+        <v>0.9847791450490048</v>
       </c>
       <c r="K23">
-        <v>1.044969671405235</v>
+        <v>0.9997386708241063</v>
       </c>
       <c r="L23">
-        <v>1.038118214291315</v>
+        <v>0.9818750279940617</v>
       </c>
       <c r="M23">
-        <v>1.052648787952345</v>
+        <v>0.9953038017839088</v>
       </c>
       <c r="N23">
-        <v>1.043653473501601</v>
+        <v>0.986177644390721</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037848859646957</v>
+        <v>0.9672071658541397</v>
       </c>
       <c r="D24">
-        <v>1.043187380787181</v>
+        <v>0.9954046434921487</v>
       </c>
       <c r="E24">
-        <v>1.036527896711321</v>
+        <v>0.978135409335867</v>
       </c>
       <c r="F24">
-        <v>1.051246747937584</v>
+        <v>0.992606336875258</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036752624366554</v>
+        <v>1.035647502276219</v>
       </c>
       <c r="J24">
-        <v>1.044026003228911</v>
+        <v>0.9960287238868319</v>
       </c>
       <c r="K24">
-        <v>1.046532550830354</v>
+        <v>1.009512942211825</v>
       </c>
       <c r="L24">
-        <v>1.039896116993363</v>
+        <v>0.9925576887308946</v>
       </c>
       <c r="M24">
-        <v>1.054564451692938</v>
+        <v>1.00676454966741</v>
       </c>
       <c r="N24">
-        <v>1.045508639904953</v>
+        <v>0.9974431989208425</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040600303766098</v>
+        <v>0.9830273210024546</v>
       </c>
       <c r="D25">
-        <v>1.045311097855878</v>
+        <v>1.007543531083208</v>
       </c>
       <c r="E25">
-        <v>1.03890601097843</v>
+        <v>0.9913334779116051</v>
       </c>
       <c r="F25">
-        <v>1.053780038695306</v>
+        <v>1.00663186412791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037463362666434</v>
+        <v>1.041006560442783</v>
       </c>
       <c r="J25">
-        <v>1.046164362191418</v>
+        <v>1.008139702532721</v>
       </c>
       <c r="K25">
-        <v>1.048334033428975</v>
+        <v>1.020025861323128</v>
       </c>
       <c r="L25">
-        <v>1.041948810839922</v>
+        <v>1.004067836984662</v>
       </c>
       <c r="M25">
-        <v>1.056777113631101</v>
+        <v>1.019128093952952</v>
       </c>
       <c r="N25">
-        <v>1.047650035582459</v>
+        <v>1.009571376545557</v>
       </c>
     </row>
   </sheetData>
